--- a/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS1.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Mounted/10 wheels/Strong-Tread Time-Domain Segments/Strong Tread Time Domain segment 600-POS-POS1.xlsx
@@ -19,7 +19,181 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="136">
+  <si>
+    <t>Signal_Value_10</t>
+  </si>
+  <si>
+    <t>Signal_Value_11</t>
+  </si>
+  <si>
+    <t>Signal_Value_12</t>
+  </si>
+  <si>
+    <t>Signal_Value_13</t>
+  </si>
+  <si>
+    <t>Signal_Value_14</t>
+  </si>
+  <si>
+    <t>Signal_Value_15</t>
+  </si>
+  <si>
+    <t>Signal_Value_16</t>
+  </si>
+  <si>
+    <t>Signal_Value_17</t>
+  </si>
+  <si>
+    <t>Signal_Value_18</t>
+  </si>
+  <si>
+    <t>Signal_Value_19</t>
+  </si>
+  <si>
+    <t>Signal_Value_20</t>
+  </si>
+  <si>
+    <t>Signal_Value_21</t>
+  </si>
+  <si>
+    <t>Signal_Value_22</t>
+  </si>
+  <si>
+    <t>Signal_Value_23</t>
+  </si>
+  <si>
+    <t>Signal_Value_24</t>
+  </si>
+  <si>
+    <t>Signal_Value_25</t>
+  </si>
+  <si>
+    <t>Signal_Value_26</t>
+  </si>
+  <si>
+    <t>Signal_Value_27</t>
+  </si>
+  <si>
+    <t>Signal_Value_28</t>
+  </si>
+  <si>
+    <t>Signal_Value_29</t>
+  </si>
+  <si>
+    <t>Signal_Value_30</t>
+  </si>
+  <si>
+    <t>Signal_Value_31</t>
+  </si>
+  <si>
+    <t>Signal_Value_32</t>
+  </si>
+  <si>
+    <t>Signal_Value_33</t>
+  </si>
+  <si>
+    <t>Signal_Value_34</t>
+  </si>
+  <si>
+    <t>Signal_Value_35</t>
+  </si>
+  <si>
+    <t>Signal_Value_36</t>
+  </si>
+  <si>
+    <t>Signal_Value_37</t>
+  </si>
+  <si>
+    <t>Signal_Value_38</t>
+  </si>
+  <si>
+    <t>Signal_Value_39</t>
+  </si>
+  <si>
+    <t>Signal_Value_40</t>
+  </si>
+  <si>
+    <t>Signal_Value_41</t>
+  </si>
+  <si>
+    <t>Signal_Value_42</t>
+  </si>
+  <si>
+    <t>Signal_Value_43</t>
+  </si>
+  <si>
+    <t>Signal_Value_44</t>
+  </si>
+  <si>
+    <t>Signal_Value_45</t>
+  </si>
+  <si>
+    <t>Signal_Value_46</t>
+  </si>
+  <si>
+    <t>Signal_Value_47</t>
+  </si>
+  <si>
+    <t>Signal_Value_48</t>
+  </si>
+  <si>
+    <t>Signal_Value_49</t>
+  </si>
+  <si>
+    <t>Signal_Value_50</t>
+  </si>
+  <si>
+    <t>Signal_Value_51</t>
+  </si>
+  <si>
+    <t>Signal_Value_52</t>
+  </si>
+  <si>
+    <t>Signal_Value_53</t>
+  </si>
+  <si>
+    <t>Signal_Value_54</t>
+  </si>
+  <si>
+    <t>Signal_Value_55</t>
+  </si>
+  <si>
+    <t>Signal_Value_56</t>
+  </si>
+  <si>
+    <t>Signal_Value_57</t>
+  </si>
+  <si>
+    <t>Signal_Value_58</t>
+  </si>
+  <si>
+    <t>Signal_Value_59</t>
+  </si>
+  <si>
+    <t>Signal_Value_60</t>
+  </si>
+  <si>
+    <t>Signal_Value_61</t>
+  </si>
+  <si>
+    <t>Signal_Value_62</t>
+  </si>
+  <si>
+    <t>Signal_Value_63</t>
+  </si>
+  <si>
+    <t>Signal_Value_64</t>
+  </si>
+  <si>
+    <t>Signal_Value_65</t>
+  </si>
+  <si>
+    <t>Signal_Value_66</t>
+  </si>
+  <si>
+    <t>Signal_Value_67</t>
+  </si>
   <si>
     <t>Signal_Value_68</t>
   </si>
@@ -174,6 +348,9 @@
     <t>Signal_Value_118</t>
   </si>
   <si>
+    <t>Signal_Value_119</t>
+  </si>
+  <si>
     <t>Segment_ID</t>
   </si>
   <si>
@@ -246,10 +423,7 @@
     <t>Tread</t>
   </si>
   <si>
-    <t>11R22.5</t>
-  </si>
-  <si>
-    <t>702ZE-i</t>
+    <t>275-80R22.5</t>
   </si>
   <si>
     <t>Empty</t>
@@ -610,15 +784,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:DG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:111">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -773,10 +947,187 @@
       <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:111">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -785,124 +1136,124 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09046117705432166</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.03437394894416316</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.02766733689694662</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.01422523974617977</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1000333395374191</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.07552628308449595</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02224860765846129</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.01645133427291479</v>
       </c>
       <c r="L2">
-        <v>0.003848566966587685</v>
+        <v>0.09386665451673322</v>
       </c>
       <c r="M2">
-        <v>4.224785757794356E-06</v>
+        <v>0.1013312694188979</v>
       </c>
       <c r="N2">
-        <v>0.001632478453635343</v>
+        <v>0.005523031312273095</v>
       </c>
       <c r="O2">
-        <v>0.001527956109646581</v>
+        <v>0.002002380738590266</v>
       </c>
       <c r="P2">
-        <v>0.0004199469182444478</v>
+        <v>0.01367730802056443</v>
       </c>
       <c r="Q2">
-        <v>0.003551003243911323</v>
+        <v>0.0307734299263527</v>
       </c>
       <c r="R2">
-        <v>0.009858880698127914</v>
+        <v>0.007794852352392835</v>
       </c>
       <c r="S2">
-        <v>0.01698801259418496</v>
+        <v>0.03975454819919714</v>
       </c>
       <c r="T2">
-        <v>0.002954409339072469</v>
+        <v>0.002066539254107622</v>
       </c>
       <c r="U2">
-        <v>0.05590051265799316</v>
+        <v>0.02200520351543104</v>
       </c>
       <c r="V2">
-        <v>0.05518921339003341</v>
+        <v>0.0233054034285538</v>
       </c>
       <c r="W2">
-        <v>0.03572837737138097</v>
+        <v>0.0003521855567595713</v>
       </c>
       <c r="X2">
-        <v>9.379638675668524E-05</v>
+        <v>0.01446781532765995</v>
       </c>
       <c r="Y2">
-        <v>0.03768276312165209</v>
+        <v>0.0241853069827859</v>
       </c>
       <c r="Z2">
-        <v>0.1584129893391273</v>
+        <v>0.07552628308449595</v>
       </c>
       <c r="AA2">
-        <v>0.09093524124335486</v>
+        <v>0.001167878035510871</v>
       </c>
       <c r="AB2">
-        <v>0.01053970920095151</v>
+        <v>0.01727780368324163</v>
       </c>
       <c r="AC2">
-        <v>0.001018836553165668</v>
+        <v>0.03935315421918844</v>
       </c>
       <c r="AD2">
-        <v>0.005144248019169266</v>
+        <v>0.003271567435737942</v>
       </c>
       <c r="AE2">
-        <v>0.03296382036734465</v>
+        <v>0.001329800920584866</v>
       </c>
       <c r="AF2">
-        <v>0.05799723604198394</v>
+        <v>0.02868444421955524</v>
       </c>
       <c r="AG2">
-        <v>0.07588552912253975</v>
+        <v>0.02718711606809926</v>
       </c>
       <c r="AH2">
-        <v>0.07636232450626507</v>
+        <v>0.0054551453611418</v>
       </c>
       <c r="AI2">
-        <v>0.04604810227983586</v>
+        <v>0.03865361122724207</v>
       </c>
       <c r="AJ2">
-        <v>0.01381407445168601</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.001738425070193225</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.0001272000100493542</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.00982507418977782</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>0.03016307319812243</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.05325745909626492</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.0605220334017155</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.04986448187146809</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -931,10 +1282,187 @@
       <c r="AZ2">
         <v>0</v>
       </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>0</v>
+      </c>
+      <c r="BO2">
+        <v>0</v>
+      </c>
+      <c r="BP2">
+        <v>0</v>
+      </c>
+      <c r="BQ2">
+        <v>0</v>
+      </c>
+      <c r="BR2">
+        <v>0</v>
+      </c>
+      <c r="BS2">
+        <v>0</v>
+      </c>
+      <c r="BT2">
+        <v>0</v>
+      </c>
+      <c r="BU2">
+        <v>0</v>
+      </c>
+      <c r="BV2">
+        <v>0</v>
+      </c>
+      <c r="BW2">
+        <v>0</v>
+      </c>
+      <c r="BX2">
+        <v>0</v>
+      </c>
+      <c r="BY2">
+        <v>0</v>
+      </c>
+      <c r="BZ2">
+        <v>0</v>
+      </c>
+      <c r="CA2">
+        <v>0</v>
+      </c>
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
+        <v>0</v>
+      </c>
+      <c r="CD2">
+        <v>0</v>
+      </c>
+      <c r="CE2">
+        <v>0</v>
+      </c>
+      <c r="CF2">
+        <v>0</v>
+      </c>
+      <c r="CG2">
+        <v>0</v>
+      </c>
+      <c r="CH2">
+        <v>0</v>
+      </c>
+      <c r="CI2">
+        <v>0</v>
+      </c>
+      <c r="CJ2">
+        <v>0</v>
+      </c>
+      <c r="CK2">
+        <v>0</v>
+      </c>
+      <c r="CL2">
+        <v>0</v>
+      </c>
+      <c r="CM2">
+        <v>0</v>
+      </c>
+      <c r="CN2">
+        <v>0</v>
+      </c>
+      <c r="CO2">
+        <v>0</v>
+      </c>
+      <c r="CP2">
+        <v>0</v>
+      </c>
+      <c r="CQ2">
+        <v>0</v>
+      </c>
+      <c r="CR2">
+        <v>0</v>
+      </c>
+      <c r="CS2">
+        <v>0</v>
+      </c>
+      <c r="CT2">
+        <v>0</v>
+      </c>
+      <c r="CU2">
+        <v>0</v>
+      </c>
+      <c r="CV2">
+        <v>0</v>
+      </c>
+      <c r="CW2">
+        <v>0</v>
+      </c>
+      <c r="CX2">
+        <v>0</v>
+      </c>
+      <c r="CY2">
+        <v>0</v>
+      </c>
+      <c r="CZ2">
+        <v>0</v>
+      </c>
+      <c r="DA2">
+        <v>0</v>
+      </c>
+      <c r="DB2">
+        <v>0</v>
+      </c>
+      <c r="DC2">
+        <v>0</v>
+      </c>
+      <c r="DD2">
+        <v>0</v>
+      </c>
+      <c r="DE2">
+        <v>0</v>
+      </c>
+      <c r="DF2">
+        <v>0</v>
+      </c>
+      <c r="DG2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:52">
+    <row r="3" spans="1:111">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -985,100 +1513,100 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.001956970511282485</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0007682515610312827</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.006001890025474317</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.0001020732179190503</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>0.00227842558776233</v>
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>0.026381037869561</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>0.001376655147763746</v>
+        <v>0</v>
       </c>
       <c r="Y3">
-        <v>0.04353853835010311</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>0.1156239896295777</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.001300743426884276</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.1213414706204143</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.01465180198446514</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.01775188515444173</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.0218181383703426</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.002778573918888414</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.02561176710173098</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.1221153531384449</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>0.08296158723255133</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>0.0410124538535268</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.003088784502691745</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.01788394845315382</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.04854605614990763</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.0454060944117905</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.02271820722198593</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.009368102016399656</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.03073009929307349</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>0.06050374459962624</v>
+        <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.03343334403954187</v>
+        <v>0</v>
       </c>
       <c r="AT3">
-        <v>0.006944964118050416</v>
+        <v>0</v>
       </c>
       <c r="AU3">
-        <v>0.004273953863218266</v>
+        <v>0</v>
       </c>
       <c r="AV3">
-        <v>0.03627787558512346</v>
+        <v>0</v>
       </c>
       <c r="AW3">
-        <v>0.03145321904327144</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1089,10 +1617,187 @@
       <c r="AZ3">
         <v>0</v>
       </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.1071885109409856</v>
+      </c>
+      <c r="CC3">
+        <v>0.01029613989777449</v>
+      </c>
+      <c r="CD3">
+        <v>0.03641130546594885</v>
+      </c>
+      <c r="CE3">
+        <v>0.01217064044452467</v>
+      </c>
+      <c r="CF3">
+        <v>0.09756550690088737</v>
+      </c>
+      <c r="CG3">
+        <v>0.05133059677537481</v>
+      </c>
+      <c r="CH3">
+        <v>0.02411681770000466</v>
+      </c>
+      <c r="CI3">
+        <v>0.03410162707117628</v>
+      </c>
+      <c r="CJ3">
+        <v>0.05176524457081533</v>
+      </c>
+      <c r="CK3">
+        <v>0.07834496754315937</v>
+      </c>
+      <c r="CL3">
+        <v>0.0003367114137913344</v>
+      </c>
+      <c r="CM3">
+        <v>0.00354652002712156</v>
+      </c>
+      <c r="CN3">
+        <v>0.03433582212620769</v>
+      </c>
+      <c r="CO3">
+        <v>0.01581951820760968</v>
+      </c>
+      <c r="CP3">
+        <v>0.01366954984867797</v>
+      </c>
+      <c r="CQ3">
+        <v>0.01187061243777758</v>
+      </c>
+      <c r="CR3">
+        <v>0.001558742495141469</v>
+      </c>
+      <c r="CS3">
+        <v>0.01192501253424557</v>
+      </c>
+      <c r="CT3">
+        <v>0.001268288066083833</v>
+      </c>
+      <c r="CU3">
+        <v>0.001384841997308718</v>
+      </c>
+      <c r="CV3">
+        <v>0.0001947338262632144</v>
+      </c>
+      <c r="CW3">
+        <v>0.1552239858277128</v>
+      </c>
+      <c r="CX3">
+        <v>0.04329552594422206</v>
+      </c>
+      <c r="CY3">
+        <v>0.01134226743925137</v>
+      </c>
+      <c r="CZ3">
+        <v>0.002755792918768085</v>
+      </c>
+      <c r="DA3">
+        <v>0.04082973817530002</v>
+      </c>
+      <c r="DB3">
+        <v>0.01523376659636009</v>
+      </c>
+      <c r="DC3">
+        <v>0.004319364527429553</v>
+      </c>
+      <c r="DD3">
+        <v>0.05580316923321357</v>
+      </c>
+      <c r="DE3">
+        <v>0.04709260416360771</v>
+      </c>
+      <c r="DF3">
+        <v>0.001539887383296733</v>
+      </c>
+      <c r="DG3">
+        <v>0.02336218749995799</v>
+      </c>
     </row>
-    <row r="4" spans="1:52">
+    <row r="4" spans="1:111">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1152,105 +1857,282 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.002865029291231157</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>0.005033233832826125</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0.003622183965244213</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0.004693168497553883</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.002649986508634683</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01267672148799591</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0.007488092961088674</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.1142367094607202</v>
+        <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.0137128968978781</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.02157439497190641</v>
+        <v>0</v>
       </c>
       <c r="AE4">
-        <v>0.1628418894125773</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.0672103129144732</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>0.00370632925965163</v>
+        <v>0</v>
       </c>
       <c r="AH4">
-        <v>0.03200812076373766</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.02637432912304437</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>0.04522660682300546</v>
+        <v>0</v>
       </c>
       <c r="AK4">
-        <v>0.03735709428743871</v>
+        <v>0</v>
       </c>
       <c r="AL4">
-        <v>0.004063639704920886</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.001108867644016097</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.004899449005356588</v>
+        <v>0.1477734422922948</v>
       </c>
       <c r="AO4">
-        <v>0.02986276368454097</v>
+        <v>0.003195365400143747</v>
       </c>
       <c r="AP4">
-        <v>0.07968418083738804</v>
+        <v>0.003461253887866046</v>
       </c>
       <c r="AQ4">
-        <v>0.1119954332945979</v>
+        <v>0.01564045926889337</v>
       </c>
       <c r="AR4">
-        <v>0.02518879066180268</v>
+        <v>0.1995200968815353</v>
       </c>
       <c r="AS4">
-        <v>0.001747449959413027</v>
+        <v>0.05430514262827302</v>
       </c>
       <c r="AT4">
-        <v>0.001618140736377519</v>
+        <v>0.0003813417069289583</v>
       </c>
       <c r="AU4">
-        <v>0.002674321674501808</v>
+        <v>0.01838412871114359</v>
       </c>
       <c r="AV4">
-        <v>0.001954042513170689</v>
+        <v>0.04720292604415665</v>
       </c>
       <c r="AW4">
-        <v>0.00335250845720775</v>
+        <v>0.06941260992478727</v>
       </c>
       <c r="AX4">
-        <v>0.03211033866891425</v>
+        <v>0.001006652277645532</v>
       </c>
       <c r="AY4">
-        <v>0.07433620988321024</v>
+        <v>0.000898351871853889</v>
       </c>
       <c r="AZ4">
-        <v>0.06212676281557377</v>
+        <v>0.02942835723875083</v>
+      </c>
+      <c r="BA4">
+        <v>0.02173062635573721</v>
+      </c>
+      <c r="BB4">
+        <v>0.0502982988301266</v>
+      </c>
+      <c r="BC4">
+        <v>0.01136636233693851</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0.008865435932473591</v>
+      </c>
+      <c r="BF4">
+        <v>0.007074498392053229</v>
+      </c>
+      <c r="BG4">
+        <v>2.696885728019616E-05</v>
+      </c>
+      <c r="BH4">
+        <v>0.01912912880791712</v>
+      </c>
+      <c r="BI4">
+        <v>0.1009099019249147</v>
+      </c>
+      <c r="BJ4">
+        <v>0.008899968116610127</v>
+      </c>
+      <c r="BK4">
+        <v>0.00216896258531604</v>
+      </c>
+      <c r="BL4">
+        <v>0.006647186129877343</v>
+      </c>
+      <c r="BM4">
+        <v>0.03741131047228338</v>
+      </c>
+      <c r="BN4">
+        <v>0.009262540907703199</v>
+      </c>
+      <c r="BO4">
+        <v>0.004313240585900688</v>
+      </c>
+      <c r="BP4">
+        <v>0.07810299801425563</v>
+      </c>
+      <c r="BQ4">
+        <v>0.01694431910550146</v>
+      </c>
+      <c r="BR4">
+        <v>0.02472378191886544</v>
+      </c>
+      <c r="BS4">
+        <v>0.001514342591972266</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CH4">
+        <v>0</v>
+      </c>
+      <c r="CI4">
+        <v>0</v>
+      </c>
+      <c r="CJ4">
+        <v>0</v>
+      </c>
+      <c r="CK4">
+        <v>0</v>
+      </c>
+      <c r="CL4">
+        <v>0</v>
+      </c>
+      <c r="CM4">
+        <v>0</v>
+      </c>
+      <c r="CN4">
+        <v>0</v>
+      </c>
+      <c r="CO4">
+        <v>0</v>
+      </c>
+      <c r="CP4">
+        <v>0</v>
+      </c>
+      <c r="CQ4">
+        <v>0</v>
+      </c>
+      <c r="CR4">
+        <v>0</v>
+      </c>
+      <c r="CS4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>0</v>
+      </c>
+      <c r="CZ4">
+        <v>0</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>0</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:52">
+    <row r="5" spans="1:111">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1307,108 +2189,285 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.00453607453070777</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.01316675530283879</v>
+        <v>0</v>
       </c>
       <c r="V5">
-        <v>9.953503235832124E-05</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0.002163963627745322</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>0.001767795326374253</v>
+        <v>0</v>
       </c>
       <c r="Y5">
-        <v>0.005508382754443313</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.01567691156268348</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>0.1147900540113165</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.01498381692624237</v>
+        <v>0</v>
       </c>
       <c r="AC5">
-        <v>0.02886143040832221</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.1500680109619334</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.04774786372485038</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.004874330002669822</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.03223865064960419</v>
+        <v>0</v>
       </c>
       <c r="AH5">
-        <v>0.02799316426951576</v>
+        <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.05619771844757718</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
-        <v>0.04305358813807725</v>
+        <v>0</v>
       </c>
       <c r="AK5">
-        <v>0.005125944123688402</v>
+        <v>0</v>
       </c>
       <c r="AL5">
-        <v>0.0001055670583309092</v>
+        <v>0</v>
       </c>
       <c r="AM5">
-        <v>0.01598464865124802</v>
+        <v>0</v>
       </c>
       <c r="AN5">
-        <v>0.04587984035567796</v>
+        <v>0.02819849286213873</v>
       </c>
       <c r="AO5">
-        <v>0.08712162250525234</v>
+        <v>0.1451863795652482</v>
       </c>
       <c r="AP5">
-        <v>0.09467905851659252</v>
+        <v>0.01396692482687487</v>
       </c>
       <c r="AQ5">
-        <v>0.0175161971395756</v>
+        <v>5.542201753287972E-05</v>
       </c>
       <c r="AR5">
-        <v>0.002074273113300237</v>
+        <v>0.1021521783778191</v>
       </c>
       <c r="AS5">
-        <v>0.0006166205241524145</v>
+        <v>0.04228899331220605</v>
       </c>
       <c r="AT5">
-        <v>0.003670999352220298</v>
+        <v>0.02116044323412176</v>
       </c>
       <c r="AU5">
-        <v>0.001608888055743362</v>
+        <v>0.008385211592923186</v>
       </c>
       <c r="AV5">
-        <v>0.004847864303015215</v>
+        <v>0.1074619875758726</v>
       </c>
       <c r="AW5">
-        <v>0.03516421687176041</v>
+        <v>0.05868636326039581</v>
       </c>
       <c r="AX5">
-        <v>0.07251391195251232</v>
+        <v>0.007616764045836969</v>
       </c>
       <c r="AY5">
-        <v>0.04936230179966942</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <v>0</v>
       </c>
+      <c r="BA5">
+        <v>0.005666157355947172</v>
+      </c>
+      <c r="BB5">
+        <v>0.02090732805873626</v>
+      </c>
+      <c r="BC5">
+        <v>0.001918584190951295</v>
+      </c>
+      <c r="BD5">
+        <v>0.0009332841108246691</v>
+      </c>
+      <c r="BE5">
+        <v>0.03325976939831715</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0.006198372029389953</v>
+      </c>
+      <c r="BH5">
+        <v>0.004433010186832916</v>
+      </c>
+      <c r="BI5">
+        <v>0.02668624675008694</v>
+      </c>
+      <c r="BJ5">
+        <v>0.07810897345654806</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0.06782811411037511</v>
+      </c>
+      <c r="BN5">
+        <v>0.01375917320452466</v>
+      </c>
+      <c r="BO5">
+        <v>0.01945675019936522</v>
+      </c>
+      <c r="BP5">
+        <v>0.07332237294672392</v>
+      </c>
+      <c r="BQ5">
+        <v>0.08489463789164665</v>
+      </c>
+      <c r="BR5">
+        <v>0.001077011940872201</v>
+      </c>
+      <c r="BS5">
+        <v>0.02639105349788804</v>
+      </c>
+      <c r="BT5">
+        <v>0</v>
+      </c>
+      <c r="BU5">
+        <v>0</v>
+      </c>
+      <c r="BV5">
+        <v>0</v>
+      </c>
+      <c r="BW5">
+        <v>0</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5">
+        <v>0</v>
+      </c>
+      <c r="BZ5">
+        <v>0</v>
+      </c>
+      <c r="CA5">
+        <v>0</v>
+      </c>
+      <c r="CB5">
+        <v>0</v>
+      </c>
+      <c r="CC5">
+        <v>0</v>
+      </c>
+      <c r="CD5">
+        <v>0</v>
+      </c>
+      <c r="CE5">
+        <v>0</v>
+      </c>
+      <c r="CF5">
+        <v>0</v>
+      </c>
+      <c r="CG5">
+        <v>0</v>
+      </c>
+      <c r="CH5">
+        <v>0</v>
+      </c>
+      <c r="CI5">
+        <v>0</v>
+      </c>
+      <c r="CJ5">
+        <v>0</v>
+      </c>
+      <c r="CK5">
+        <v>0</v>
+      </c>
+      <c r="CL5">
+        <v>0</v>
+      </c>
+      <c r="CM5">
+        <v>0</v>
+      </c>
+      <c r="CN5">
+        <v>0</v>
+      </c>
+      <c r="CO5">
+        <v>0</v>
+      </c>
+      <c r="CP5">
+        <v>0</v>
+      </c>
+      <c r="CQ5">
+        <v>0</v>
+      </c>
+      <c r="CR5">
+        <v>0</v>
+      </c>
+      <c r="CS5">
+        <v>0</v>
+      </c>
+      <c r="CT5">
+        <v>0</v>
+      </c>
+      <c r="CU5">
+        <v>0</v>
+      </c>
+      <c r="CV5">
+        <v>0</v>
+      </c>
+      <c r="CW5">
+        <v>0</v>
+      </c>
+      <c r="CX5">
+        <v>0</v>
+      </c>
+      <c r="CY5">
+        <v>0</v>
+      </c>
+      <c r="CZ5">
+        <v>0</v>
+      </c>
+      <c r="DA5">
+        <v>0</v>
+      </c>
+      <c r="DB5">
+        <v>0</v>
+      </c>
+      <c r="DC5">
+        <v>0</v>
+      </c>
+      <c r="DD5">
+        <v>0</v>
+      </c>
+      <c r="DE5">
+        <v>0</v>
+      </c>
+      <c r="DF5">
+        <v>0</v>
+      </c>
+      <c r="DG5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:52">
+    <row r="6" spans="1:111">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1417,100 +2476,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01007957359914186</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01783308021312443</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8.808395610616244E-05</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002691243966336301</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>0.03794131277188734</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.003688457891701261</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0.02029566168662581</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.1007336759253891</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.001058769068058375</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1115127323901992</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.02700950193060427</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01332272872004332</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>5.5603351131606E-05</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.02832731533752192</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>0.0196697953759193</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>0.05499159255851494</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>0.01379614024333036</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.003187665730967989</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0.0008805481804103531</v>
+        <v>0</v>
       </c>
       <c r="W6">
-        <v>0.008941720858829568</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>0.02923083762940021</v>
+        <v>0</v>
       </c>
       <c r="Y6">
-        <v>0.103216363653711</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>0.08975297575466122</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0046575631556946</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.009434275672122431</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.0009797553835240533</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>0.0005126664957434672</v>
+        <v>0</v>
       </c>
       <c r="AE6">
-        <v>4.036175116688052E-06</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.007639255196390913</v>
+        <v>0</v>
       </c>
       <c r="AG6">
-        <v>0.05163846122440472</v>
+        <v>0</v>
       </c>
       <c r="AH6">
-        <v>0.1491484968553891</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0.07768010904799809</v>
+        <v>0</v>
       </c>
       <c r="AJ6">
         <v>0</v>
@@ -1522,45 +2581,222 @@
         <v>0</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>0.09530566942775953</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>0.03705943104594917</v>
       </c>
       <c r="AO6">
-        <v>0</v>
+        <v>0.0449945540670868</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.0106555958651241</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>0.07353117052199254</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>0.05523945884223618</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>0.01863537648969161</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>0.01771243217838528</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>0.05358012776239723</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>0.1410049911884498</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>0.002603127864761131</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>3.042124068945299E-06</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>0.01140894997096682</v>
       </c>
       <c r="AZ6">
+        <v>0.01833811294776945</v>
+      </c>
+      <c r="BA6">
+        <v>0.001142101357728166</v>
+      </c>
+      <c r="BB6">
+        <v>0.02633254892527982</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0.01072447575812291</v>
+      </c>
+      <c r="BE6">
+        <v>0.006868088112132984</v>
+      </c>
+      <c r="BF6">
+        <v>0.005601099412275311</v>
+      </c>
+      <c r="BG6">
+        <v>0.0002151822979362057</v>
+      </c>
+      <c r="BH6">
+        <v>0.05642014687726876</v>
+      </c>
+      <c r="BI6">
+        <v>0.1058565513587119</v>
+      </c>
+      <c r="BJ6">
+        <v>0.002937235201711975</v>
+      </c>
+      <c r="BK6">
+        <v>0.02366499062852498</v>
+      </c>
+      <c r="BL6">
+        <v>0.01928522714164033</v>
+      </c>
+      <c r="BM6">
+        <v>0.0389467212020238</v>
+      </c>
+      <c r="BN6">
+        <v>0</v>
+      </c>
+      <c r="BO6">
+        <v>0.02024250183842604</v>
+      </c>
+      <c r="BP6">
+        <v>0.05450580255458406</v>
+      </c>
+      <c r="BQ6">
+        <v>0.02308928449495009</v>
+      </c>
+      <c r="BR6">
+        <v>0.02409600254204413</v>
+      </c>
+      <c r="BS6">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>0</v>
+      </c>
+      <c r="BU6">
+        <v>0</v>
+      </c>
+      <c r="BV6">
+        <v>0</v>
+      </c>
+      <c r="BW6">
+        <v>0</v>
+      </c>
+      <c r="BX6">
+        <v>0</v>
+      </c>
+      <c r="BY6">
+        <v>0</v>
+      </c>
+      <c r="BZ6">
+        <v>0</v>
+      </c>
+      <c r="CA6">
+        <v>0</v>
+      </c>
+      <c r="CB6">
+        <v>0</v>
+      </c>
+      <c r="CC6">
+        <v>0</v>
+      </c>
+      <c r="CD6">
+        <v>0</v>
+      </c>
+      <c r="CE6">
+        <v>0</v>
+      </c>
+      <c r="CF6">
+        <v>0</v>
+      </c>
+      <c r="CG6">
+        <v>0</v>
+      </c>
+      <c r="CH6">
+        <v>0</v>
+      </c>
+      <c r="CI6">
+        <v>0</v>
+      </c>
+      <c r="CJ6">
+        <v>0</v>
+      </c>
+      <c r="CK6">
+        <v>0</v>
+      </c>
+      <c r="CL6">
+        <v>0</v>
+      </c>
+      <c r="CM6">
+        <v>0</v>
+      </c>
+      <c r="CN6">
+        <v>0</v>
+      </c>
+      <c r="CO6">
+        <v>0</v>
+      </c>
+      <c r="CP6">
+        <v>0</v>
+      </c>
+      <c r="CQ6">
+        <v>0</v>
+      </c>
+      <c r="CR6">
+        <v>0</v>
+      </c>
+      <c r="CS6">
+        <v>0</v>
+      </c>
+      <c r="CT6">
+        <v>0</v>
+      </c>
+      <c r="CU6">
+        <v>0</v>
+      </c>
+      <c r="CV6">
+        <v>0</v>
+      </c>
+      <c r="CW6">
+        <v>0</v>
+      </c>
+      <c r="CX6">
+        <v>0</v>
+      </c>
+      <c r="CY6">
+        <v>0</v>
+      </c>
+      <c r="CZ6">
+        <v>0</v>
+      </c>
+      <c r="DA6">
+        <v>0</v>
+      </c>
+      <c r="DB6">
+        <v>0</v>
+      </c>
+      <c r="DC6">
+        <v>0</v>
+      </c>
+      <c r="DD6">
+        <v>0</v>
+      </c>
+      <c r="DE6">
+        <v>0</v>
+      </c>
+      <c r="DF6">
+        <v>0</v>
+      </c>
+      <c r="DG6">
         <v>0</v>
       </c>
     </row>
@@ -1571,15 +2807,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AZ6"/>
+  <dimension ref="A1:DG6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:111">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1734,10 +2970,187 @@
       <c r="AZ1" s="1" t="s">
         <v>50</v>
       </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CX1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="CY1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CZ1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="DB1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="DC1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="DD1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG1" s="1" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="2" spans="1:52">
+    <row r="2" spans="1:111">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1746,783 +3159,1668 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.09046117705432166</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.1248351259984848</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.1525024628954314</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1667277026416112</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2667610421790303</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3422873252635263</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3645359329219875</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3809872671949023</v>
       </c>
       <c r="L2">
-        <v>0.003848566966587685</v>
+        <v>0.4748539217116355</v>
       </c>
       <c r="M2">
-        <v>0.00385279175234548</v>
+        <v>0.5761851911305335</v>
       </c>
       <c r="N2">
-        <v>0.005485270205980822</v>
+        <v>0.5817082224428065</v>
       </c>
       <c r="O2">
-        <v>0.007013226315627404</v>
+        <v>0.5837106031813968</v>
       </c>
       <c r="P2">
-        <v>0.007433173233871851</v>
+        <v>0.5973879112019612</v>
       </c>
       <c r="Q2">
-        <v>0.01098417647778317</v>
+        <v>0.6281613411283139</v>
       </c>
       <c r="R2">
-        <v>0.02084305717591109</v>
+        <v>0.6359561934807068</v>
       </c>
       <c r="S2">
-        <v>0.03783106977009605</v>
+        <v>0.6757107416799039</v>
       </c>
       <c r="T2">
-        <v>0.04078547910916852</v>
+        <v>0.6777772809340115</v>
       </c>
       <c r="U2">
-        <v>0.09668599176716168</v>
+        <v>0.6997824844494425</v>
       </c>
       <c r="V2">
-        <v>0.1518752051571951</v>
+        <v>0.7230878878779963</v>
       </c>
       <c r="W2">
-        <v>0.1876035825285761</v>
+        <v>0.7234400734347558</v>
       </c>
       <c r="X2">
-        <v>0.1876973789153328</v>
+        <v>0.7379078887624158</v>
       </c>
       <c r="Y2">
-        <v>0.2253801420369848</v>
+        <v>0.7620931957452016</v>
       </c>
       <c r="Z2">
-        <v>0.3837931313761121</v>
+        <v>0.8376194788296976</v>
       </c>
       <c r="AA2">
-        <v>0.474728372619467</v>
+        <v>0.8387873568652084</v>
       </c>
       <c r="AB2">
-        <v>0.4852680818204185</v>
+        <v>0.8560651605484501</v>
       </c>
       <c r="AC2">
-        <v>0.4862869183735841</v>
+        <v>0.8954183147676384</v>
       </c>
       <c r="AD2">
-        <v>0.4914311663927534</v>
+        <v>0.8986898822033764</v>
       </c>
       <c r="AE2">
-        <v>0.524394986760098</v>
+        <v>0.9000196831239613</v>
       </c>
       <c r="AF2">
-        <v>0.5823922228020819</v>
+        <v>0.9287041273435166</v>
       </c>
       <c r="AG2">
-        <v>0.6582777519246217</v>
+        <v>0.9558912434116158</v>
       </c>
       <c r="AH2">
-        <v>0.7346400764308867</v>
+        <v>0.9613463887727576</v>
       </c>
       <c r="AI2">
-        <v>0.7806881787107226</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AJ2">
-        <v>0.7945022531624086</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AK2">
-        <v>0.7962406782326018</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AL2">
-        <v>0.7963678782426512</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AM2">
-        <v>0.8061929524324291</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.8363560256305514</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AO2">
-        <v>0.8896134847268163</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AP2">
-        <v>0.9501355181285318</v>
+        <v>0.9999999999999997</v>
       </c>
       <c r="AQ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AR2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AS2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AT2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AU2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AV2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AW2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AX2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AY2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="AZ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BA2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BB2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BC2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BD2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BE2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BF2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BG2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BH2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BI2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BJ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BK2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BL2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BM2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BN2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BO2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BP2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BQ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BR2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BS2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BT2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BU2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BV2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BW2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BX2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BY2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BZ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CA2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CB2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CC2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CD2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CE2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CF2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CG2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CH2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CI2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CJ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CK2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CL2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CM2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CN2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CO2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CP2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CQ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CR2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CS2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CT2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CU2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CV2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CW2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CX2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CY2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CZ2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DA2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DB2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DC2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DD2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DE2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DF2">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DG2">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:111">
+      <c r="A3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>0</v>
+      </c>
+      <c r="BO3">
+        <v>0</v>
+      </c>
+      <c r="BP3">
+        <v>0</v>
+      </c>
+      <c r="BQ3">
+        <v>0</v>
+      </c>
+      <c r="BR3">
+        <v>0</v>
+      </c>
+      <c r="BS3">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3">
+        <v>0</v>
+      </c>
+      <c r="BV3">
+        <v>0</v>
+      </c>
+      <c r="BW3">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3">
+        <v>0</v>
+      </c>
+      <c r="BZ3">
+        <v>0</v>
+      </c>
+      <c r="CA3">
+        <v>0</v>
+      </c>
+      <c r="CB3">
+        <v>0.1071885109409856</v>
+      </c>
+      <c r="CC3">
+        <v>0.1174846508387601</v>
+      </c>
+      <c r="CD3">
+        <v>0.153895956304709</v>
+      </c>
+      <c r="CE3">
+        <v>0.1660665967492336</v>
+      </c>
+      <c r="CF3">
+        <v>0.263632103650121</v>
+      </c>
+      <c r="CG3">
+        <v>0.3149627004254958</v>
+      </c>
+      <c r="CH3">
+        <v>0.3390795181255005</v>
+      </c>
+      <c r="CI3">
+        <v>0.3731811451966768</v>
+      </c>
+      <c r="CJ3">
+        <v>0.4249463897674921</v>
+      </c>
+      <c r="CK3">
+        <v>0.5032913573106514</v>
+      </c>
+      <c r="CL3">
+        <v>0.5036280687244428</v>
+      </c>
+      <c r="CM3">
+        <v>0.5071745887515643</v>
+      </c>
+      <c r="CN3">
+        <v>0.541510410877772</v>
+      </c>
+      <c r="CO3">
+        <v>0.5573299290853816</v>
+      </c>
+      <c r="CP3">
+        <v>0.5709994789340596</v>
+      </c>
+      <c r="CQ3">
+        <v>0.5828700913718371</v>
+      </c>
+      <c r="CR3">
+        <v>0.5844288338669785</v>
+      </c>
+      <c r="CS3">
+        <v>0.5963538464012241</v>
+      </c>
+      <c r="CT3">
+        <v>0.5976221344673079</v>
+      </c>
+      <c r="CU3">
+        <v>0.5990069764646166</v>
+      </c>
+      <c r="CV3">
+        <v>0.5992017102908799</v>
+      </c>
+      <c r="CW3">
+        <v>0.7544256961185927</v>
+      </c>
+      <c r="CX3">
+        <v>0.7977212220628147</v>
+      </c>
+      <c r="CY3">
+        <v>0.8090634895020661</v>
+      </c>
+      <c r="CZ3">
+        <v>0.8118192824208341</v>
+      </c>
+      <c r="DA3">
+        <v>0.8526490205961341</v>
+      </c>
+      <c r="DB3">
+        <v>0.8678827871924942</v>
+      </c>
+      <c r="DC3">
+        <v>0.8722021517199238</v>
+      </c>
+      <c r="DD3">
+        <v>0.9280053209531374</v>
+      </c>
+      <c r="DE3">
+        <v>0.9750979251167451</v>
+      </c>
+      <c r="DF3">
+        <v>0.9766378125000418</v>
+      </c>
+      <c r="DG3">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:111">
+      <c r="A4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0.1477734422922948</v>
+      </c>
+      <c r="AO4">
+        <v>0.1509688076924385</v>
+      </c>
+      <c r="AP4">
+        <v>0.1544300615803046</v>
+      </c>
+      <c r="AQ4">
+        <v>0.170070520849198</v>
+      </c>
+      <c r="AR4">
+        <v>0.3695906177307332</v>
+      </c>
+      <c r="AS4">
+        <v>0.4238957603590062</v>
+      </c>
+      <c r="AT4">
+        <v>0.4242771020659352</v>
+      </c>
+      <c r="AU4">
+        <v>0.4426612307770788</v>
+      </c>
+      <c r="AV4">
+        <v>0.4898641568212354</v>
+      </c>
+      <c r="AW4">
+        <v>0.5592767667460227</v>
+      </c>
+      <c r="AX4">
+        <v>0.5602834190236682</v>
+      </c>
+      <c r="AY4">
+        <v>0.5611817708955221</v>
+      </c>
+      <c r="AZ4">
+        <v>0.5906101281342729</v>
+      </c>
+      <c r="BA4">
+        <v>0.6123407544900101</v>
+      </c>
+      <c r="BB4">
+        <v>0.6626390533201367</v>
+      </c>
+      <c r="BC4">
+        <v>0.6740054156570753</v>
+      </c>
+      <c r="BD4">
+        <v>0.6740054156570753</v>
+      </c>
+      <c r="BE4">
+        <v>0.6828708515895489</v>
+      </c>
+      <c r="BF4">
+        <v>0.6899453499816021</v>
+      </c>
+      <c r="BG4">
+        <v>0.6899723188388822</v>
+      </c>
+      <c r="BH4">
+        <v>0.7091014476467994</v>
+      </c>
+      <c r="BI4">
+        <v>0.8100113495717141</v>
+      </c>
+      <c r="BJ4">
+        <v>0.8189113176883241</v>
+      </c>
+      <c r="BK4">
+        <v>0.8210802802736402</v>
+      </c>
+      <c r="BL4">
+        <v>0.8277274664035176</v>
+      </c>
+      <c r="BM4">
+        <v>0.865138776875801</v>
+      </c>
+      <c r="BN4">
+        <v>0.8744013177835042</v>
+      </c>
+      <c r="BO4">
+        <v>0.8787145583694048</v>
+      </c>
+      <c r="BP4">
+        <v>0.9568175563836605</v>
+      </c>
+      <c r="BQ4">
+        <v>0.9737618754891619</v>
+      </c>
+      <c r="BR4">
+        <v>0.9984856574080274</v>
+      </c>
+      <c r="BS4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BT4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BU4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BV4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BW4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BX4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BY4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="BZ4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CA4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CB4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CC4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CD4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CE4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CF4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CG4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CH4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CI4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CJ4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CK4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CL4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CM4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CN4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CO4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CP4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CQ4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CR4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CS4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CT4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CU4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CV4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CW4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CX4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CY4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="CZ4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DA4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DB4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DC4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DD4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DE4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DF4">
+        <v>0.9999999999999997</v>
+      </c>
+      <c r="DG4">
+        <v>0.9999999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:111">
+      <c r="A5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0.02819849286213873</v>
+      </c>
+      <c r="AO5">
+        <v>0.1733848724273869</v>
+      </c>
+      <c r="AP5">
+        <v>0.1873517972542617</v>
+      </c>
+      <c r="AQ5">
+        <v>0.1874072192717946</v>
+      </c>
+      <c r="AR5">
+        <v>0.2895593976496138</v>
+      </c>
+      <c r="AS5">
+        <v>0.3318483909618198</v>
+      </c>
+      <c r="AT5">
+        <v>0.3530088341959416</v>
+      </c>
+      <c r="AU5">
+        <v>0.3613940457888648</v>
+      </c>
+      <c r="AV5">
+        <v>0.4688560333647374</v>
+      </c>
+      <c r="AW5">
+        <v>0.5275423966251332</v>
+      </c>
+      <c r="AX5">
+        <v>0.5351591606709702</v>
+      </c>
+      <c r="AY5">
+        <v>0.5351591606709702</v>
+      </c>
+      <c r="AZ5">
+        <v>0.5351591606709702</v>
+      </c>
+      <c r="BA5">
+        <v>0.5408253180269175</v>
+      </c>
+      <c r="BB5">
+        <v>0.5617326460856538</v>
+      </c>
+      <c r="BC5">
+        <v>0.563651230276605</v>
+      </c>
+      <c r="BD5">
+        <v>0.5645845143874297</v>
+      </c>
+      <c r="BE5">
+        <v>0.5978442837857469</v>
+      </c>
+      <c r="BF5">
+        <v>0.5978442837857469</v>
+      </c>
+      <c r="BG5">
+        <v>0.6040426558151369</v>
+      </c>
+      <c r="BH5">
+        <v>0.6084756660019699</v>
+      </c>
+      <c r="BI5">
+        <v>0.6351619127520568</v>
+      </c>
+      <c r="BJ5">
+        <v>0.7132708862086049</v>
+      </c>
+      <c r="BK5">
+        <v>0.7132708862086049</v>
+      </c>
+      <c r="BL5">
+        <v>0.7132708862086049</v>
+      </c>
+      <c r="BM5">
+        <v>0.7810990003189801</v>
+      </c>
+      <c r="BN5">
+        <v>0.7948581735235047</v>
+      </c>
+      <c r="BO5">
+        <v>0.81431492372287</v>
+      </c>
+      <c r="BP5">
+        <v>0.8876372966695939</v>
+      </c>
+      <c r="BQ5">
+        <v>0.9725319345612405</v>
+      </c>
+      <c r="BR5">
+        <v>0.9736089465021127</v>
+      </c>
+      <c r="BS5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BT5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BU5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BV5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BW5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BX5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BY5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="BZ5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CA5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CB5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CC5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CD5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CE5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CF5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CG5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CH5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CI5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CJ5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CK5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CL5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CM5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CN5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CO5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CP5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CQ5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CR5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CS5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CT5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CU5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CV5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CW5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CX5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CY5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="CZ5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DA5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DB5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DC5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DD5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DE5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DF5">
+        <v>1.000000000000001</v>
+      </c>
+      <c r="DG5">
+        <v>1.000000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:111">
+      <c r="A6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0.09530566942775953</v>
+      </c>
+      <c r="AN6">
+        <v>0.1323651004737087</v>
+      </c>
+      <c r="AO6">
+        <v>0.1773596545407955</v>
+      </c>
+      <c r="AP6">
+        <v>0.1880152504059196</v>
+      </c>
+      <c r="AQ6">
+        <v>0.2615464209279121</v>
+      </c>
+      <c r="AR6">
+        <v>0.3167858797701483</v>
+      </c>
+      <c r="AS6">
+        <v>0.3354212562598399</v>
+      </c>
+      <c r="AT6">
+        <v>0.3531336884382252</v>
+      </c>
+      <c r="AU6">
+        <v>0.4067138162006225</v>
+      </c>
+      <c r="AV6">
+        <v>0.5477188073890722</v>
+      </c>
+      <c r="AW6">
+        <v>0.5503219352538333</v>
+      </c>
+      <c r="AX6">
+        <v>0.5503249773779023</v>
+      </c>
+      <c r="AY6">
+        <v>0.5617339273488692</v>
+      </c>
+      <c r="AZ6">
+        <v>0.5800720402966386</v>
+      </c>
+      <c r="BA6">
+        <v>0.5812141416543668</v>
+      </c>
+      <c r="BB6">
+        <v>0.6075466905796466</v>
+      </c>
+      <c r="BC6">
+        <v>0.6075466905796466</v>
+      </c>
+      <c r="BD6">
+        <v>0.6182711663377696</v>
+      </c>
+      <c r="BE6">
+        <v>0.6251392544499026</v>
+      </c>
+      <c r="BF6">
+        <v>0.6307403538621779</v>
+      </c>
+      <c r="BG6">
+        <v>0.630955536160114</v>
+      </c>
+      <c r="BH6">
+        <v>0.6873756830373827</v>
+      </c>
+      <c r="BI6">
+        <v>0.7932322343960946</v>
+      </c>
+      <c r="BJ6">
+        <v>0.7961694695978065</v>
+      </c>
+      <c r="BK6">
+        <v>0.8198344602263316</v>
+      </c>
+      <c r="BL6">
+        <v>0.8391196873679718</v>
+      </c>
+      <c r="BM6">
+        <v>0.8780664085699956</v>
+      </c>
+      <c r="BN6">
+        <v>0.8780664085699956</v>
+      </c>
+      <c r="BO6">
+        <v>0.8983089104084216</v>
+      </c>
+      <c r="BP6">
+        <v>0.9528147129630057</v>
+      </c>
+      <c r="BQ6">
+        <v>0.9759039974579558</v>
+      </c>
+      <c r="BR6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AR2">
+      <c r="BS6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AS2">
+      <c r="BT6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AT2">
+      <c r="BU6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AU2">
+      <c r="BV6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AV2">
+      <c r="BW6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AW2">
+      <c r="BX6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AX2">
+      <c r="BY6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AY2">
+      <c r="BZ6">
         <v>0.9999999999999999</v>
       </c>
-      <c r="AZ2">
+      <c r="CA6">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:52">
-      <c r="A3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0.001956970511282485</v>
-      </c>
-      <c r="S3">
-        <v>0.002725222072313768</v>
-      </c>
-      <c r="T3">
-        <v>0.008727112097788085</v>
-      </c>
-      <c r="U3">
-        <v>0.008829185315707136</v>
-      </c>
-      <c r="V3">
-        <v>0.01110761090346947</v>
-      </c>
-      <c r="W3">
-        <v>0.03748864877303047</v>
-      </c>
-      <c r="X3">
-        <v>0.03886530392079421</v>
-      </c>
-      <c r="Y3">
-        <v>0.08240384227089731</v>
-      </c>
-      <c r="Z3">
-        <v>0.1980278319004751</v>
-      </c>
-      <c r="AA3">
-        <v>0.1993285753273593</v>
-      </c>
-      <c r="AB3">
-        <v>0.3206700459477736</v>
-      </c>
-      <c r="AC3">
-        <v>0.3353218479322387</v>
-      </c>
-      <c r="AD3">
-        <v>0.3530737330866804</v>
-      </c>
-      <c r="AE3">
-        <v>0.374891871457023</v>
-      </c>
-      <c r="AF3">
-        <v>0.3776704453759114</v>
-      </c>
-      <c r="AG3">
-        <v>0.4032822124776424</v>
-      </c>
-      <c r="AH3">
-        <v>0.5253975656160873</v>
-      </c>
-      <c r="AI3">
-        <v>0.6083591528486386</v>
-      </c>
-      <c r="AJ3">
-        <v>0.6493716067021654</v>
-      </c>
-      <c r="AK3">
-        <v>0.6524603912048572</v>
-      </c>
-      <c r="AL3">
-        <v>0.670344339658011</v>
-      </c>
-      <c r="AM3">
-        <v>0.7188903958079186</v>
-      </c>
-      <c r="AN3">
-        <v>0.7642964902197091</v>
-      </c>
-      <c r="AO3">
-        <v>0.7870146974416951</v>
-      </c>
-      <c r="AP3">
-        <v>0.7963827994580948</v>
-      </c>
-      <c r="AQ3">
-        <v>0.8271128987511682</v>
-      </c>
-      <c r="AR3">
-        <v>0.8876166433507945</v>
-      </c>
-      <c r="AS3">
-        <v>0.9210499873903364</v>
-      </c>
-      <c r="AT3">
-        <v>0.9279949515083868</v>
-      </c>
-      <c r="AU3">
-        <v>0.9322689053716051</v>
-      </c>
-      <c r="AV3">
-        <v>0.9685467809567285</v>
-      </c>
-      <c r="AW3">
-        <v>1</v>
-      </c>
-      <c r="AX3">
-        <v>1</v>
-      </c>
-      <c r="AY3">
-        <v>1</v>
-      </c>
-      <c r="AZ3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52">
-      <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0.002865029291231157</v>
-      </c>
-      <c r="V4">
-        <v>0.007898263124057281</v>
-      </c>
-      <c r="W4">
-        <v>0.01152044708930149</v>
-      </c>
-      <c r="X4">
-        <v>0.01621361558685538</v>
-      </c>
-      <c r="Y4">
-        <v>0.01886360209549006</v>
-      </c>
-      <c r="Z4">
-        <v>0.03154032358348598</v>
-      </c>
-      <c r="AA4">
-        <v>0.03902841654457465</v>
-      </c>
-      <c r="AB4">
-        <v>0.1532651260052949</v>
-      </c>
-      <c r="AC4">
-        <v>0.166978022903173</v>
-      </c>
-      <c r="AD4">
-        <v>0.1885524178750794</v>
-      </c>
-      <c r="AE4">
-        <v>0.3513943072876567</v>
-      </c>
-      <c r="AF4">
-        <v>0.4186046202021299</v>
-      </c>
-      <c r="AG4">
-        <v>0.4223109494617815</v>
-      </c>
-      <c r="AH4">
-        <v>0.4543190702255192</v>
-      </c>
-      <c r="AI4">
-        <v>0.4806933993485636</v>
-      </c>
-      <c r="AJ4">
-        <v>0.5259200061715691</v>
-      </c>
-      <c r="AK4">
-        <v>0.5632771004590078</v>
-      </c>
-      <c r="AL4">
-        <v>0.5673407401639287</v>
-      </c>
-      <c r="AM4">
-        <v>0.5684496078079447</v>
-      </c>
-      <c r="AN4">
-        <v>0.5733490568133013</v>
-      </c>
-      <c r="AO4">
-        <v>0.6032118204978423</v>
-      </c>
-      <c r="AP4">
-        <v>0.6828960013352303</v>
-      </c>
-      <c r="AQ4">
-        <v>0.7948914346298283</v>
-      </c>
-      <c r="AR4">
-        <v>0.8200802252916309</v>
-      </c>
-      <c r="AS4">
-        <v>0.8218276752510439</v>
-      </c>
-      <c r="AT4">
-        <v>0.8234458159874215</v>
-      </c>
-      <c r="AU4">
-        <v>0.8261201376619233</v>
-      </c>
-      <c r="AV4">
-        <v>0.8280741801750939</v>
-      </c>
-      <c r="AW4">
-        <v>0.8314266886323017</v>
-      </c>
-      <c r="AX4">
-        <v>0.863537027301216</v>
-      </c>
-      <c r="AY4">
-        <v>0.9378732371844262</v>
-      </c>
-      <c r="AZ4">
+      <c r="CB6">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:52">
-      <c r="A5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0.00453607453070777</v>
-      </c>
-      <c r="U5">
-        <v>0.01770282983354656</v>
-      </c>
-      <c r="V5">
-        <v>0.01780236486590488</v>
-      </c>
-      <c r="W5">
-        <v>0.0199663284936502</v>
-      </c>
-      <c r="X5">
-        <v>0.02173412382002446</v>
-      </c>
-      <c r="Y5">
-        <v>0.02724250657446777</v>
-      </c>
-      <c r="Z5">
-        <v>0.04291941813715125</v>
-      </c>
-      <c r="AA5">
-        <v>0.1577094721484678</v>
-      </c>
-      <c r="AB5">
-        <v>0.1726932890747102</v>
-      </c>
-      <c r="AC5">
-        <v>0.2015547194830324</v>
-      </c>
-      <c r="AD5">
-        <v>0.3516227304449658</v>
-      </c>
-      <c r="AE5">
-        <v>0.3993705941698162</v>
-      </c>
-      <c r="AF5">
-        <v>0.4042449241724861</v>
-      </c>
-      <c r="AG5">
-        <v>0.4364835748220903</v>
-      </c>
-      <c r="AH5">
-        <v>0.464476739091606</v>
-      </c>
-      <c r="AI5">
-        <v>0.5206744575391832</v>
-      </c>
-      <c r="AJ5">
-        <v>0.5637280456772604</v>
-      </c>
-      <c r="AK5">
-        <v>0.5688539898009488</v>
-      </c>
-      <c r="AL5">
-        <v>0.5689595568592797</v>
-      </c>
-      <c r="AM5">
-        <v>0.5849442055105277</v>
-      </c>
-      <c r="AN5">
-        <v>0.6308240458662057</v>
-      </c>
-      <c r="AO5">
-        <v>0.717945668371458</v>
-      </c>
-      <c r="AP5">
-        <v>0.8126247268880505</v>
-      </c>
-      <c r="AQ5">
-        <v>0.8301409240276262</v>
-      </c>
-      <c r="AR5">
-        <v>0.8322151971409264</v>
-      </c>
-      <c r="AS5">
-        <v>0.8328318176650789</v>
-      </c>
-      <c r="AT5">
-        <v>0.8365028170172991</v>
-      </c>
-      <c r="AU5">
-        <v>0.8381117050730424</v>
-      </c>
-      <c r="AV5">
-        <v>0.8429595693760576</v>
-      </c>
-      <c r="AW5">
-        <v>0.8781237862478181</v>
-      </c>
-      <c r="AX5">
-        <v>0.9506376982003304</v>
-      </c>
-      <c r="AY5">
-        <v>0.9999999999999998</v>
-      </c>
-      <c r="AZ5">
-        <v>0.9999999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:52">
-      <c r="A6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.01007957359914186</v>
-      </c>
-      <c r="E6">
-        <v>0.02791265381226628</v>
-      </c>
-      <c r="F6">
-        <v>0.02800073776837245</v>
-      </c>
-      <c r="G6">
-        <v>0.03069198173470875</v>
-      </c>
-      <c r="H6">
-        <v>0.06863329450659608</v>
-      </c>
-      <c r="I6">
-        <v>0.07232175239829734</v>
-      </c>
-      <c r="J6">
-        <v>0.09261741408492316</v>
-      </c>
-      <c r="K6">
-        <v>0.1933510900103122</v>
-      </c>
-      <c r="L6">
-        <v>0.1944098590783706</v>
-      </c>
-      <c r="M6">
-        <v>0.3059225914685698</v>
-      </c>
-      <c r="N6">
-        <v>0.3329320933991741</v>
-      </c>
-      <c r="O6">
-        <v>0.3462548221192174</v>
-      </c>
-      <c r="P6">
-        <v>0.346310425470349</v>
-      </c>
-      <c r="Q6">
-        <v>0.3746377408078709</v>
-      </c>
-      <c r="R6">
-        <v>0.3943075361837902</v>
-      </c>
-      <c r="S6">
-        <v>0.4492991287423051</v>
-      </c>
-      <c r="T6">
-        <v>0.4630952689856355</v>
-      </c>
-      <c r="U6">
-        <v>0.4662829347166035</v>
-      </c>
-      <c r="V6">
-        <v>0.4671634828970138</v>
-      </c>
-      <c r="W6">
-        <v>0.4761052037558434</v>
-      </c>
-      <c r="X6">
-        <v>0.5053360413852436</v>
-      </c>
-      <c r="Y6">
-        <v>0.6085524050389546</v>
-      </c>
-      <c r="Z6">
-        <v>0.6983053807936158</v>
-      </c>
-      <c r="AA6">
-        <v>0.7029629439493104</v>
-      </c>
-      <c r="AB6">
-        <v>0.7123972196214328</v>
-      </c>
-      <c r="AC6">
-        <v>0.7133769750049568</v>
-      </c>
-      <c r="AD6">
-        <v>0.7138896415007002</v>
-      </c>
-      <c r="AE6">
-        <v>0.7138936776758169</v>
-      </c>
-      <c r="AF6">
-        <v>0.7215329328722078</v>
-      </c>
-      <c r="AG6">
-        <v>0.7731713940966125</v>
-      </c>
-      <c r="AH6">
-        <v>0.9223198909520016</v>
-      </c>
-      <c r="AI6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AJ6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AK6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AL6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AM6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AN6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AO6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AP6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AQ6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AR6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AS6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AT6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AU6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AV6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AW6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AX6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AY6">
-        <v>0.9999999999999997</v>
-      </c>
-      <c r="AZ6">
-        <v>0.9999999999999997</v>
+      <c r="CC6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CD6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CE6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CF6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CG6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CH6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CI6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CJ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CK6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CL6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CM6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CN6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CO6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CP6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CQ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CR6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CS6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CT6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CU6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CV6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CW6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CX6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CY6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="CZ6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DA6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DB6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DC6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DD6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DE6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DF6">
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="DG6">
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2540,302 +4838,287 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>0.01098417647778317</v>
+        <v>0.09046117705432166</v>
       </c>
       <c r="F2">
-        <v>0.524394986760098</v>
+        <v>0.5761851911305335</v>
       </c>
       <c r="G2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E3">
-        <v>0.01110761090346947</v>
+        <v>0.1071885109409856</v>
       </c>
       <c r="F3">
-        <v>0.5253975656160873</v>
+        <v>0.5032913573106514</v>
       </c>
       <c r="G3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L3">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E4">
-        <v>0.01152044708930149</v>
+        <v>0.1477734422922948</v>
       </c>
       <c r="F4">
-        <v>0.5259200061715691</v>
+        <v>0.5592767667460227</v>
       </c>
       <c r="G4">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L4">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>0.01770282983354656</v>
+        <v>0.1733848724273869</v>
       </c>
       <c r="F5">
-        <v>0.5206744575391832</v>
+        <v>0.5275423966251332</v>
       </c>
       <c r="G5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L5">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="E6">
-        <v>0.01007957359914186</v>
+        <v>0.09530566942775953</v>
       </c>
       <c r="F6">
-        <v>0.5053360413852436</v>
+        <v>0.5477188073890722</v>
       </c>
       <c r="G6">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L6">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2853,172 +5136,166 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>0.01098417647778317</v>
+        <v>0.09046117705432166</v>
       </c>
       <c r="F2">
-        <v>0.7346400764308867</v>
+        <v>0.7230878878779963</v>
       </c>
       <c r="G2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
+        <v>79</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>0.1071885109409856</v>
+      </c>
+      <c r="F3">
+        <v>0.7544256961185927</v>
+      </c>
+      <c r="G3">
         <v>21</v>
-      </c>
-      <c r="D3">
-        <v>38</v>
-      </c>
-      <c r="E3">
-        <v>0.01110761090346947</v>
-      </c>
-      <c r="F3">
-        <v>0.7188903958079186</v>
-      </c>
-      <c r="G3">
-        <v>17</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L3">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="E4">
-        <v>0.01152044708930149</v>
+        <v>0.1477734422922948</v>
       </c>
       <c r="F4">
-        <v>0.7948914346298283</v>
+        <v>0.7091014476467994</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -3027,128 +5304,119 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L4">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>0.01770282983354656</v>
+        <v>0.1733848724273869</v>
       </c>
       <c r="F5">
-        <v>0.717945668371458</v>
+        <v>0.7132708862086049</v>
       </c>
       <c r="G5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L5">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>0.01007957359914186</v>
+        <v>0.09530566942775953</v>
       </c>
       <c r="F6">
-        <v>0.7029629439493104</v>
+        <v>0.7932322343960946</v>
       </c>
       <c r="G6">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L6">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3166,72 +5434,72 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>0.01098417647778317</v>
+        <v>0.09046117705432166</v>
       </c>
       <c r="F2">
-        <v>0.8061929524324291</v>
+        <v>0.8376194788296976</v>
       </c>
       <c r="G2">
         <v>22</v>
@@ -3240,98 +5508,92 @@
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.01110761090346947</v>
+        <v>0.1071885109409856</v>
       </c>
       <c r="F3">
-        <v>0.8271128987511682</v>
+        <v>0.8090634895020661</v>
       </c>
       <c r="G3">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L3">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="E4">
-        <v>0.01152044708930149</v>
+        <v>0.1477734422922948</v>
       </c>
       <c r="F4">
-        <v>0.8200802252916309</v>
+        <v>0.8100113495717141</v>
       </c>
       <c r="G4">
         <v>21</v>
@@ -3340,128 +5602,119 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L4">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="E5">
-        <v>0.01770282983354656</v>
+        <v>0.1733848724273869</v>
       </c>
       <c r="F5">
-        <v>0.8126247268880505</v>
+        <v>0.81431492372287</v>
       </c>
       <c r="G5">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L5">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E6">
-        <v>0.01007957359914186</v>
+        <v>0.09530566942775953</v>
       </c>
       <c r="F6">
-        <v>0.9223198909520016</v>
+        <v>0.8198344602263316</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L6">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3479,172 +5732,166 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>120</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>121</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>123</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>124</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>125</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
+        <v>127</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>111</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>0.01098417647778317</v>
+        <v>0.09046117705432166</v>
       </c>
       <c r="F2">
-        <v>0.9501355181285318</v>
+        <v>0.9000196831239613</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>600</v>
       </c>
       <c r="I2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L2">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M2">
         <v>600</v>
       </c>
       <c r="N2" t="s">
-        <v>75</v>
-      </c>
-      <c r="O2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="E3">
-        <v>0.01110761090346947</v>
+        <v>0.1071885109409856</v>
       </c>
       <c r="F3">
-        <v>0.9210499873903364</v>
+        <v>0.9280053209531374</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H3">
         <v>600</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L3">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M3">
         <v>600</v>
       </c>
       <c r="N3" t="s">
-        <v>75</v>
-      </c>
-      <c r="O3" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P3" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="E4">
-        <v>0.01152044708930149</v>
+        <v>0.1477734422922948</v>
       </c>
       <c r="F4">
-        <v>0.9378732371844262</v>
+        <v>0.9568175563836605</v>
       </c>
       <c r="G4">
         <v>28</v>
@@ -3653,128 +5900,119 @@
         <v>600</v>
       </c>
       <c r="I4" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L4">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M4">
         <v>600</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P4" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>55</v>
+        <v>114</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="E5">
-        <v>0.01770282983354656</v>
+        <v>0.1733848724273869</v>
       </c>
       <c r="F5">
-        <v>0.9506376982003304</v>
+        <v>0.9725319345612405</v>
       </c>
       <c r="G5">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5">
         <v>600</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L5">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M5">
         <v>600</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
-      </c>
-      <c r="O5" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P5" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
-        <v>56</v>
+        <v>115</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <v>0.01007957359914186</v>
+        <v>0.09530566942775953</v>
       </c>
       <c r="F6">
-        <v>0.9223198909520016</v>
+        <v>0.9528147129630057</v>
       </c>
       <c r="G6">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6">
         <v>600</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="K6" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="L6">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="M6">
         <v>600</v>
       </c>
       <c r="N6" t="s">
-        <v>75</v>
-      </c>
-      <c r="O6" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="P6" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
